--- a/datafile/Wisconsin Daily Witholding Married .xlsx
+++ b/datafile/Wisconsin Daily Witholding Married .xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\binghamdy\IdeaProjects\XTeamPayroll\datafile\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dylan Bingham\IdeaProjects\X_Team Payroll\datafile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97A24E3E-49CB-4815-A9FF-AFDF9D452DCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2810D958-203F-467C-9C9B-DB2FA0D2022F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{BAF256CF-B00F-4E64-B8F0-C5BF5B4353D5}"/>
+    <workbookView xWindow="38280" yWindow="6645" windowWidth="21840" windowHeight="13140" xr2:uid="{BAF256CF-B00F-4E64-B8F0-C5BF5B4353D5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,10 +31,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -66,7 +62,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -130,26 +126,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
@@ -174,18 +155,6 @@
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -503,11 +472,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4202756-7BE9-4BBD-BA55-754BA4FDD30C}">
   <dimension ref="A1:M57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection sqref="A1:M1"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="L61" sqref="L61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="4">
@@ -2361,37 +2330,37 @@
       <c r="B46" s="3">
         <v>238</v>
       </c>
-      <c r="C46" s="9">
+      <c r="C46" s="6">
         <v>11.6</v>
       </c>
-      <c r="D46" s="9">
+      <c r="D46" s="6">
         <v>11.6</v>
       </c>
-      <c r="E46" s="9">
+      <c r="E46" s="6">
         <v>11.5</v>
       </c>
-      <c r="F46" s="9">
+      <c r="F46" s="6">
         <v>11.5</v>
       </c>
-      <c r="G46" s="9">
+      <c r="G46" s="6">
         <v>11.4</v>
       </c>
-      <c r="H46" s="9">
+      <c r="H46" s="6">
         <v>11.3</v>
       </c>
-      <c r="I46" s="9">
+      <c r="I46" s="6">
         <v>11.3</v>
       </c>
-      <c r="J46" s="9">
+      <c r="J46" s="6">
         <v>11.2</v>
       </c>
-      <c r="K46" s="9">
+      <c r="K46" s="6">
         <v>11.2</v>
       </c>
-      <c r="L46" s="9">
+      <c r="L46" s="6">
         <v>11.1</v>
       </c>
-      <c r="M46" s="9">
+      <c r="M46" s="6">
         <v>11.1</v>
       </c>
     </row>
@@ -2402,37 +2371,37 @@
       <c r="B47" s="1">
         <v>243</v>
       </c>
-      <c r="C47" s="10">
+      <c r="C47" s="6">
         <v>11.9</v>
       </c>
-      <c r="D47" s="10">
+      <c r="D47" s="6">
         <v>11.8</v>
       </c>
-      <c r="E47" s="10">
+      <c r="E47" s="6">
         <v>11.8</v>
       </c>
-      <c r="F47" s="10">
+      <c r="F47" s="6">
         <v>11.7</v>
       </c>
-      <c r="G47" s="10">
+      <c r="G47" s="6">
         <v>11.7</v>
       </c>
-      <c r="H47" s="10">
+      <c r="H47" s="6">
         <v>11.6</v>
       </c>
-      <c r="I47" s="10">
+      <c r="I47" s="6">
         <v>11.6</v>
       </c>
-      <c r="J47" s="10">
+      <c r="J47" s="6">
         <v>11.5</v>
       </c>
-      <c r="K47" s="10">
+      <c r="K47" s="6">
         <v>11.4</v>
       </c>
-      <c r="L47" s="10">
+      <c r="L47" s="6">
         <v>11.4</v>
       </c>
-      <c r="M47" s="10">
+      <c r="M47" s="6">
         <v>11.3</v>
       </c>
     </row>
@@ -2443,37 +2412,37 @@
       <c r="B48" s="1">
         <v>248</v>
       </c>
-      <c r="C48" s="10">
+      <c r="C48" s="6">
         <v>12.2</v>
       </c>
-      <c r="D48" s="10">
+      <c r="D48" s="6">
         <v>12.1</v>
       </c>
-      <c r="E48" s="10">
+      <c r="E48" s="6">
         <v>12.1</v>
       </c>
-      <c r="F48" s="10">
+      <c r="F48" s="6">
         <v>12</v>
       </c>
-      <c r="G48" s="10">
+      <c r="G48" s="6">
         <v>11.9</v>
       </c>
-      <c r="H48" s="10">
+      <c r="H48" s="6">
         <v>11.9</v>
       </c>
-      <c r="I48" s="10">
+      <c r="I48" s="6">
         <v>11.8</v>
       </c>
-      <c r="J48" s="10">
+      <c r="J48" s="6">
         <v>11.8</v>
       </c>
-      <c r="K48" s="10">
+      <c r="K48" s="6">
         <v>11.7</v>
       </c>
-      <c r="L48" s="10">
+      <c r="L48" s="6">
         <v>11.6</v>
       </c>
-      <c r="M48" s="10">
+      <c r="M48" s="6">
         <v>11.6</v>
       </c>
     </row>
@@ -2484,37 +2453,37 @@
       <c r="B49" s="1">
         <v>253</v>
       </c>
-      <c r="C49" s="10">
+      <c r="C49" s="6">
         <v>12.4</v>
       </c>
-      <c r="D49" s="10">
+      <c r="D49" s="6">
         <v>12.4</v>
       </c>
-      <c r="E49" s="10">
+      <c r="E49" s="6">
         <v>12.3</v>
       </c>
-      <c r="F49" s="10">
+      <c r="F49" s="6">
         <v>12.3</v>
       </c>
-      <c r="G49" s="10">
+      <c r="G49" s="6">
         <v>12.2</v>
       </c>
-      <c r="H49" s="10">
+      <c r="H49" s="6">
         <v>12.1</v>
       </c>
-      <c r="I49" s="10">
+      <c r="I49" s="6">
         <v>12.1</v>
       </c>
-      <c r="J49" s="10">
+      <c r="J49" s="6">
         <v>12</v>
       </c>
-      <c r="K49" s="10">
+      <c r="K49" s="6">
         <v>12</v>
       </c>
-      <c r="L49" s="10">
+      <c r="L49" s="6">
         <v>11.9</v>
       </c>
-      <c r="M49" s="10">
+      <c r="M49" s="6">
         <v>11.9</v>
       </c>
     </row>
@@ -2525,37 +2494,37 @@
       <c r="B50" s="2">
         <v>258</v>
       </c>
-      <c r="C50" s="11">
+      <c r="C50" s="6">
         <v>12.7</v>
       </c>
-      <c r="D50" s="11">
+      <c r="D50" s="6">
         <v>12.6</v>
       </c>
-      <c r="E50" s="11">
+      <c r="E50" s="6">
         <v>12.6</v>
       </c>
-      <c r="F50" s="11">
+      <c r="F50" s="6">
         <v>12.5</v>
       </c>
-      <c r="G50" s="11">
+      <c r="G50" s="6">
         <v>12.5</v>
       </c>
-      <c r="H50" s="11">
+      <c r="H50" s="6">
         <v>12.4</v>
       </c>
-      <c r="I50" s="11">
+      <c r="I50" s="6">
         <v>12.4</v>
       </c>
-      <c r="J50" s="11">
+      <c r="J50" s="6">
         <v>12.3</v>
       </c>
-      <c r="K50" s="11">
+      <c r="K50" s="6">
         <v>12.2</v>
       </c>
-      <c r="L50" s="11">
+      <c r="L50" s="6">
         <v>12.2</v>
       </c>
-      <c r="M50" s="11">
+      <c r="M50" s="6">
         <v>12.1</v>
       </c>
     </row>
@@ -2566,37 +2535,37 @@
       <c r="B51" s="3">
         <v>263</v>
       </c>
-      <c r="C51" s="9">
+      <c r="C51" s="6">
         <v>13</v>
       </c>
-      <c r="D51" s="9">
+      <c r="D51" s="6">
         <v>12.9</v>
       </c>
-      <c r="E51" s="9">
+      <c r="E51" s="6">
         <v>12.8</v>
       </c>
-      <c r="F51" s="9">
+      <c r="F51" s="6">
         <v>12.8</v>
       </c>
-      <c r="G51" s="9">
+      <c r="G51" s="6">
         <v>12.7</v>
       </c>
-      <c r="H51" s="9">
+      <c r="H51" s="6">
         <v>12.7</v>
       </c>
-      <c r="I51" s="9">
+      <c r="I51" s="6">
         <v>12.6</v>
       </c>
-      <c r="J51" s="9">
+      <c r="J51" s="6">
         <v>12.6</v>
       </c>
-      <c r="K51" s="9">
+      <c r="K51" s="6">
         <v>12.5</v>
       </c>
-      <c r="L51" s="9">
+      <c r="L51" s="6">
         <v>12.4</v>
       </c>
-      <c r="M51" s="9">
+      <c r="M51" s="6">
         <v>12.4</v>
       </c>
     </row>
@@ -2607,37 +2576,37 @@
       <c r="B52" s="1">
         <v>268</v>
       </c>
-      <c r="C52" s="10">
+      <c r="C52" s="6">
         <v>13.2</v>
       </c>
-      <c r="D52" s="10">
+      <c r="D52" s="6">
         <v>13.2</v>
       </c>
-      <c r="E52" s="10">
+      <c r="E52" s="6">
         <v>13.1</v>
       </c>
-      <c r="F52" s="10">
+      <c r="F52" s="6">
         <v>13.1</v>
       </c>
-      <c r="G52" s="10">
+      <c r="G52" s="6">
         <v>13</v>
       </c>
-      <c r="H52" s="10">
+      <c r="H52" s="6">
         <v>12.9</v>
       </c>
-      <c r="I52" s="10">
+      <c r="I52" s="6">
         <v>12.9</v>
       </c>
-      <c r="J52" s="10">
+      <c r="J52" s="6">
         <v>12.8</v>
       </c>
-      <c r="K52" s="10">
+      <c r="K52" s="6">
         <v>12.8</v>
       </c>
-      <c r="L52" s="10">
+      <c r="L52" s="6">
         <v>12.7</v>
       </c>
-      <c r="M52" s="10">
+      <c r="M52" s="6">
         <v>12.6</v>
       </c>
     </row>
@@ -2648,37 +2617,37 @@
       <c r="B53" s="1">
         <v>273</v>
       </c>
-      <c r="C53" s="10">
+      <c r="C53" s="6">
         <v>13.5</v>
       </c>
-      <c r="D53" s="10">
+      <c r="D53" s="6">
         <v>13.4</v>
       </c>
-      <c r="E53" s="10">
+      <c r="E53" s="6">
         <v>13.4</v>
       </c>
-      <c r="F53" s="10">
+      <c r="F53" s="6">
         <v>13.3</v>
       </c>
-      <c r="G53" s="10">
+      <c r="G53" s="6">
         <v>13.3</v>
       </c>
-      <c r="H53" s="10">
+      <c r="H53" s="6">
         <v>13.2</v>
       </c>
-      <c r="I53" s="10">
+      <c r="I53" s="6">
         <v>13.1</v>
       </c>
-      <c r="J53" s="10">
+      <c r="J53" s="6">
         <v>13.1</v>
       </c>
-      <c r="K53" s="10">
+      <c r="K53" s="6">
         <v>13</v>
       </c>
-      <c r="L53" s="10">
+      <c r="L53" s="6">
         <v>13</v>
       </c>
-      <c r="M53" s="10">
+      <c r="M53" s="6">
         <v>12.9</v>
       </c>
     </row>
@@ -2689,37 +2658,37 @@
       <c r="B54" s="1">
         <v>278</v>
       </c>
-      <c r="C54" s="10">
+      <c r="C54" s="6">
         <v>13.8</v>
       </c>
-      <c r="D54" s="10">
+      <c r="D54" s="6">
         <v>13.7</v>
       </c>
-      <c r="E54" s="10">
+      <c r="E54" s="6">
         <v>13.6</v>
       </c>
-      <c r="F54" s="10">
+      <c r="F54" s="6">
         <v>13.6</v>
       </c>
-      <c r="G54" s="10">
+      <c r="G54" s="6">
         <v>13.5</v>
       </c>
-      <c r="H54" s="10">
+      <c r="H54" s="6">
         <v>13.5</v>
       </c>
-      <c r="I54" s="10">
+      <c r="I54" s="6">
         <v>13.4</v>
       </c>
-      <c r="J54" s="10">
+      <c r="J54" s="6">
         <v>13.4</v>
       </c>
-      <c r="K54" s="10">
+      <c r="K54" s="6">
         <v>13.3</v>
       </c>
-      <c r="L54" s="10">
+      <c r="L54" s="6">
         <v>13.2</v>
       </c>
-      <c r="M54" s="10">
+      <c r="M54" s="6">
         <v>13.2</v>
       </c>
     </row>
@@ -2730,37 +2699,37 @@
       <c r="B55" s="2">
         <v>283</v>
       </c>
-      <c r="C55" s="11">
+      <c r="C55" s="6">
         <v>14</v>
       </c>
-      <c r="D55" s="11">
+      <c r="D55" s="6">
         <v>14</v>
       </c>
-      <c r="E55" s="11">
+      <c r="E55" s="6">
         <v>13.9</v>
       </c>
-      <c r="F55" s="11">
+      <c r="F55" s="6">
         <v>13.8</v>
       </c>
-      <c r="G55" s="11">
+      <c r="G55" s="6">
         <v>13.8</v>
       </c>
-      <c r="H55" s="11">
+      <c r="H55" s="6">
         <v>13.7</v>
       </c>
-      <c r="I55" s="11">
+      <c r="I55" s="6">
         <v>13.7</v>
       </c>
-      <c r="J55" s="11">
+      <c r="J55" s="6">
         <v>13.6</v>
       </c>
-      <c r="K55" s="11">
+      <c r="K55" s="6">
         <v>13.6</v>
       </c>
-      <c r="L55" s="11">
+      <c r="L55" s="6">
         <v>13.5</v>
       </c>
-      <c r="M55" s="11">
+      <c r="M55" s="6">
         <v>13.4</v>
       </c>
     </row>
@@ -2771,37 +2740,37 @@
       <c r="B56" s="5">
         <v>769</v>
       </c>
-      <c r="C56" s="12">
+      <c r="C56" s="6">
         <v>14.2</v>
       </c>
-      <c r="D56" s="12">
+      <c r="D56" s="6">
         <v>14.1</v>
       </c>
-      <c r="E56" s="12">
+      <c r="E56" s="6">
         <v>14</v>
       </c>
-      <c r="F56" s="12">
+      <c r="F56" s="6">
         <v>14</v>
       </c>
-      <c r="G56" s="12">
+      <c r="G56" s="6">
         <v>13.9</v>
       </c>
-      <c r="H56" s="12">
+      <c r="H56" s="6">
         <v>13.9</v>
       </c>
-      <c r="I56" s="12">
+      <c r="I56" s="6">
         <v>13.8</v>
       </c>
-      <c r="J56" s="12">
+      <c r="J56" s="6">
         <v>13.7</v>
       </c>
-      <c r="K56" s="12">
+      <c r="K56" s="6">
         <v>13.7</v>
       </c>
-      <c r="L56" s="12">
+      <c r="L56" s="6">
         <v>13.6</v>
       </c>
-      <c r="M56" s="12">
+      <c r="M56" s="6">
         <v>13.6</v>
       </c>
     </row>
@@ -2812,37 +2781,37 @@
       <c r="B57" s="5">
         <v>0</v>
       </c>
-      <c r="C57" s="12">
+      <c r="C57" s="6">
         <v>39.9</v>
       </c>
-      <c r="D57" s="12">
+      <c r="D57" s="6">
         <v>39.9</v>
       </c>
-      <c r="E57" s="12">
+      <c r="E57" s="6">
         <v>39.799999999999997</v>
       </c>
-      <c r="F57" s="12">
+      <c r="F57" s="6">
         <v>39.700000000000003</v>
       </c>
-      <c r="G57" s="12">
+      <c r="G57" s="6">
         <v>39.700000000000003</v>
       </c>
-      <c r="H57" s="12">
+      <c r="H57" s="6">
         <v>39.6</v>
       </c>
-      <c r="I57" s="12">
+      <c r="I57" s="6">
         <v>39.6</v>
       </c>
-      <c r="J57" s="12">
+      <c r="J57" s="6">
         <v>39.5</v>
       </c>
-      <c r="K57" s="12">
+      <c r="K57" s="6">
         <v>39.4</v>
       </c>
-      <c r="L57" s="12">
+      <c r="L57" s="6">
         <v>39.4</v>
       </c>
-      <c r="M57" s="12">
+      <c r="M57" s="6">
         <v>39.299999999999997</v>
       </c>
     </row>
